--- a/results/mp/logistic/corona/confidence/84/stop-words-desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-desired-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,25 +40,31 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>low</t>
   </si>
   <si>
     <t>negative</t>
@@ -76,82 +82,88 @@
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -509,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8648648648648649</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -628,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8424657534246576</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C4">
-        <v>246</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>246</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -678,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>0.9666666666666667</v>
@@ -728,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.8253424657534246</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5925925925925926</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C7">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -828,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4496124031007752</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C8">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -870,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -878,89 +890,137 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3466666666666667</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>26</v>
       </c>
-      <c r="D9">
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>0.90625</v>
+      </c>
+      <c r="L9">
+        <v>116</v>
+      </c>
+      <c r="M9">
+        <v>116</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.4593023255813953</v>
+      </c>
+      <c r="C10">
+        <v>237</v>
+      </c>
+      <c r="D10">
+        <v>237</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>279</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.261744966442953</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>110</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>49</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9">
-        <v>0.9112271540469974</v>
-      </c>
-      <c r="L9">
-        <v>349</v>
-      </c>
-      <c r="M9">
-        <v>349</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="J10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10">
-        <v>0.8936170212765957</v>
-      </c>
-      <c r="L10">
-        <v>42</v>
-      </c>
-      <c r="M10">
-        <v>42</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="J11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -972,21 +1032,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8802816901408451</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L12">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="M12">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -998,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1024,12 +1084,12 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K14">
         <v>0.875</v>
@@ -1055,16 +1115,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.8679245283018868</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1076,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1102,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1128,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.8448275862068966</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1154,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.82</v>
+        <v>0.8125</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1185,7 +1245,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K20">
         <v>0.8095238095238095</v>
@@ -1211,16 +1271,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.7708333333333334</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1232,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.7428571428571429</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1258,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.7389830508474576</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L23">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M23">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1284,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.7205882352941176</v>
+        <v>0.72</v>
       </c>
       <c r="L24">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1310,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.694560669456067</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L25">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M25">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1336,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.6702127659574468</v>
+        <v>0.675</v>
       </c>
       <c r="L26">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1362,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.65</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1388,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.6285714285714286</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1414,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.6153846153846154</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1440,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.550561797752809</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1466,21 +1526,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5098039215686274</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1492,21 +1552,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4358974358974359</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1518,7 +1578,59 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
